--- a/StructureDefinition-ext-R5-EvidenceVariable.characteristic.xlsx
+++ b/StructureDefinition-ext-R5-EvidenceVariable.characteristic.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -344,7 +344,7 @@
   </si>
   <si>
     <t>Element `EvidenceVariable.characteristic.linkId` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a component extension (e.g., if this element is used as a content reference).
-Element `EvidenceVariable.characteristic.linkId` is mapped to FHIR R4 structure `EvidenceVariable`, but has no target element specified.</t>
+Element `EvidenceVariable.characteristic.linkId` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>Extension.extension:linkId.id</t>
@@ -465,7 +465,7 @@
   </si>
   <si>
     <t>Element `EvidenceVariable.characteristic.note` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a component extension (e.g., if this element is used as a content reference).
-Element `EvidenceVariable.characteristic.note` is mapped to FHIR R4 structure `EvidenceVariable`, but has no target element specified.</t>
+Element `EvidenceVariable.characteristic.note` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>Extension.extension:note.id</t>
@@ -535,7 +535,8 @@
   </si>
   <si>
     <t>Element `EvidenceVariable.characteristic.definitionReference` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a component extension (e.g., if this element is used as a content reference).
-Element `EvidenceVariable.characteristic.definitionReference` is mapped to FHIR R4 structure `EvidenceVariable`, but has no target element specified.</t>
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `EvidenceVariable.characteristic.definitionReference` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `EvidenceVariable.characteristic.definitionReference` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>Extension.extension:definitionReference.id</t>
@@ -570,7 +571,8 @@
   </si>
   <si>
     <t>Element `EvidenceVariable.characteristic.definitionCanonical` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a component extension (e.g., if this element is used as a content reference).
-Element `EvidenceVariable.characteristic.definitionCanonical` is mapped to FHIR R4 structure `EvidenceVariable`, but has no target element specified.</t>
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `EvidenceVariable.characteristic.definitionCanonical` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
+Element `EvidenceVariable.characteristic.definitionCanonical` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>Extension.extension:definitionCanonical.id</t>
@@ -605,7 +607,7 @@
   </si>
   <si>
     <t>Element `EvidenceVariable.characteristic.definitionCodeableConcept` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a component extension (e.g., if this element is used as a content reference).
-Element `EvidenceVariable.characteristic.definitionCodeableConcept` is mapped to FHIR R4 structure `EvidenceVariable`, but has no target element specified.</t>
+Element `EvidenceVariable.characteristic.definitionCodeableConcept` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>Extension.extension:definitionCodeableConcept.id</t>
@@ -643,7 +645,7 @@
   </si>
   <si>
     <t>Element `EvidenceVariable.characteristic.definitionExpression` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a component extension (e.g., if this element is used as a content reference).
-Element `EvidenceVariable.characteristic.definitionExpression` is mapped to FHIR R4 structure `EvidenceVariable`, but has no target element specified.</t>
+Element `EvidenceVariable.characteristic.definitionExpression` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>Extension.extension:definitionExpression.id</t>
@@ -678,7 +680,7 @@
   </si>
   <si>
     <t>Element `EvidenceVariable.characteristic.definitionId` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a component extension (e.g., if this element is used as a content reference).
-Element `EvidenceVariable.characteristic.definitionId` is mapped to FHIR R4 structure `EvidenceVariable`, but has no target element specified.</t>
+Element `EvidenceVariable.characteristic.definitionId` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>Extension.extension:definitionId.id</t>
@@ -709,7 +711,7 @@
   </si>
   <si>
     <t>Element `EvidenceVariable.characteristic.definitionByTypeAndValue` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a component extension (e.g., if this element is used as a content reference).
-Element `EvidenceVariable.characteristic.definitionByTypeAndValue` is mapped to FHIR R4 structure `EvidenceVariable`, but has no target element specified.</t>
+Element `EvidenceVariable.characteristic.definitionByTypeAndValue` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>Extension.extension:definitionByTypeAndValue.id</t>
@@ -734,7 +736,7 @@
   </si>
   <si>
     <t>Element `EvidenceVariable.characteristic.definitionByTypeAndValue.type` is part of an existing definition because parent element `EvidenceVariable.characteristic.definitionByTypeAndValue` requires a cross-version extension.
-Element `EvidenceVariable.characteristic.definitionByTypeAndValue.type` is mapped to FHIR R4 structure `EvidenceVariable`, but has no target element specified.</t>
+Element `EvidenceVariable.characteristic.definitionByTypeAndValue.type` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>Extension.extension:definitionByTypeAndValue.extension:type.id</t>
@@ -780,7 +782,7 @@
   </si>
   <si>
     <t>Element `EvidenceVariable.characteristic.definitionByTypeAndValue.method` is part of an existing definition because parent element `EvidenceVariable.characteristic.definitionByTypeAndValue` requires a cross-version extension.
-Element `EvidenceVariable.characteristic.definitionByTypeAndValue.method` is mapped to FHIR R4 structure `EvidenceVariable`, but has no target element specified.</t>
+Element `EvidenceVariable.characteristic.definitionByTypeAndValue.method` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>Extension.extension:definitionByTypeAndValue.extension:method.id</t>
@@ -808,7 +810,8 @@
   </si>
   <si>
     <t>Element `EvidenceVariable.characteristic.definitionByTypeAndValue.device` is part of an existing definition because parent element `EvidenceVariable.characteristic.definitionByTypeAndValue` requires a cross-version extension.
-Element `EvidenceVariable.characteristic.definitionByTypeAndValue.device` is mapped to FHIR R4 structure `EvidenceVariable`, but has no target element specified.</t>
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `EvidenceVariable.characteristic.definitionByTypeAndValue.device` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `EvidenceVariable.characteristic.definitionByTypeAndValue.device` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>Extension.extension:definitionByTypeAndValue.extension:device.id</t>
@@ -840,7 +843,7 @@
   </si>
   <si>
     <t>Element `EvidenceVariable.characteristic.definitionByTypeAndValue.value[x]` is part of an existing definition because parent element `EvidenceVariable.characteristic.definitionByTypeAndValue` requires a cross-version extension.
-Element `EvidenceVariable.characteristic.definitionByTypeAndValue.value[x]` is mapped to FHIR R4 structure `EvidenceVariable`, but has no target element specified.</t>
+Element `EvidenceVariable.characteristic.definitionByTypeAndValue.value[x]` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>Extension.extension:definitionByTypeAndValue.extension:value.id</t>
@@ -872,7 +875,7 @@
   </si>
   <si>
     <t>Element `EvidenceVariable.characteristic.definitionByTypeAndValue.offset` is part of an existing definition because parent element `EvidenceVariable.characteristic.definitionByTypeAndValue` requires a cross-version extension.
-Element `EvidenceVariable.characteristic.definitionByTypeAndValue.offset` is mapped to FHIR R4 structure `EvidenceVariable`, but has no target element specified.</t>
+Element `EvidenceVariable.characteristic.definitionByTypeAndValue.offset` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>Extension.extension:definitionByTypeAndValue.extension:offset.id</t>
@@ -919,7 +922,7 @@
   </si>
   <si>
     <t>Element `EvidenceVariable.characteristic.definitionByCombination` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a component extension (e.g., if this element is used as a content reference).
-Element `EvidenceVariable.characteristic.definitionByCombination` is mapped to FHIR R4 structure `EvidenceVariable`, but has no target element specified.</t>
+Element `EvidenceVariable.characteristic.definitionByCombination` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>Extension.extension:definitionByCombination.id</t>
@@ -941,7 +944,7 @@
   </si>
   <si>
     <t>If code is "at-least" or "at-most" then threshold SHALL be used. If code is neither "at-least" nor "at-most" then threshold SHALL NOT be used. Element `EvidenceVariable.characteristic.definitionByCombination.code` is part of an existing definition because parent element `EvidenceVariable.characteristic.definitionByCombination` requires a cross-version extension.
-Element `EvidenceVariable.characteristic.definitionByCombination.code` is mapped to FHIR R4 structure `EvidenceVariable`, but has no target element specified.</t>
+Element `EvidenceVariable.characteristic.definitionByCombination.code` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>Extension.extension:definitionByCombination.extension:code.id</t>
@@ -979,7 +982,7 @@
   </si>
   <si>
     <t>Element `EvidenceVariable.characteristic.definitionByCombination.threshold` is part of an existing definition because parent element `EvidenceVariable.characteristic.definitionByCombination` requires a cross-version extension.
-Element `EvidenceVariable.characteristic.definitionByCombination.threshold` is mapped to FHIR R4 structure `EvidenceVariable`, but has no target element specified.</t>
+Element `EvidenceVariable.characteristic.definitionByCombination.threshold` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>Extension.extension:definitionByCombination.extension:threshold.id</t>
@@ -1011,7 +1014,7 @@
   </si>
   <si>
     <t>Element `EvidenceVariable.characteristic.definitionByCombination.characteristic` is part of an existing definition because parent element `EvidenceVariable.characteristic.definitionByCombination` requires a cross-version extension.
-Element `EvidenceVariable.characteristic.definitionByCombination.characteristic` is mapped to FHIR R4 structure `EvidenceVariable`, but has no target element specified.</t>
+Element `EvidenceVariable.characteristic.definitionByCombination.characteristic` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>Extension.extension:definitionByCombination.extension:characteristic.id</t>
@@ -1048,7 +1051,7 @@
   </si>
   <si>
     <t>Element `EvidenceVariable.characteristic.instances[x]` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a component extension (e.g., if this element is used as a content reference).
-Element `EvidenceVariable.characteristic.instances[x]` is mapped to FHIR R4 structure `EvidenceVariable`, but has no target element specified.</t>
+Element `EvidenceVariable.characteristic.instances[x]` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>Extension.extension:instances.id</t>
@@ -1083,7 +1086,7 @@
   </si>
   <si>
     <t>Element `EvidenceVariable.characteristic.duration[x]` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a component extension (e.g., if this element is used as a content reference).
-Element `EvidenceVariable.characteristic.duration[x]` is mapped to FHIR R4 structure `EvidenceVariable`, but has no target element specified.</t>
+Element `EvidenceVariable.characteristic.duration[x]` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>Extension.extension:duration.id</t>
@@ -1132,7 +1135,7 @@
     <t>Human readable description.</t>
   </si>
   <si>
-    <t>Element `EvidenceVariable.characteristic.timeFromEvent.description` is mapped to FHIR R4 structure `EvidenceVariable`, but has no target element specified.</t>
+    <t>Element `EvidenceVariable.characteristic.timeFromEvent.description` is will have a context of EvidenceVariable.characteristic.timeFromStart based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>Extension.extension:timeFromEvent.extension:description.id</t>
@@ -1153,7 +1156,7 @@
     <t>A human-readable string to clarify or explain concepts about the timeFromEvent.</t>
   </si>
   <si>
-    <t>Element `EvidenceVariable.characteristic.timeFromEvent.note` is mapped to FHIR R4 structure `EvidenceVariable`, but has no target element specified.</t>
+    <t>Element `EvidenceVariable.characteristic.timeFromEvent.note` is will have a context of EvidenceVariable.characteristic.timeFromStart based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>Extension.extension:timeFromEvent.extension:note.id</t>
@@ -1180,7 +1183,7 @@
     <t>The event used as a base point (reference point) in time.</t>
   </si>
   <si>
-    <t>Element `EvidenceVariable.characteristic.timeFromEvent.event[x]` is mapped to FHIR R4 structure `EvidenceVariable`, but has no target element specified.</t>
+    <t>Element `EvidenceVariable.characteristic.timeFromEvent.event[x]` is will have a context of EvidenceVariable.characteristic.timeFromStart based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>Extension.extension:timeFromEvent.extension:event.id</t>
@@ -1211,7 +1214,7 @@
     <t>Used to express the observation at a defined amount of time before or after the event.</t>
   </si>
   <si>
-    <t>Element `EvidenceVariable.characteristic.timeFromEvent.quantity` is mapped to FHIR R4 structure `EvidenceVariable`, but has no target element specified.</t>
+    <t>Element `EvidenceVariable.characteristic.timeFromEvent.quantity` is will have a context of EvidenceVariable.characteristic.timeFromStart based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>Extension.extension:timeFromEvent.extension:quantity.id</t>
@@ -1242,7 +1245,7 @@
     <t>Used to express the observation within a period before and/or after the event.</t>
   </si>
   <si>
-    <t>Element `EvidenceVariable.characteristic.timeFromEvent.range` is mapped to FHIR R4 structure `EvidenceVariable`, but has no target element specified.</t>
+    <t>Element `EvidenceVariable.characteristic.timeFromEvent.range` is will have a context of EvidenceVariable.characteristic.timeFromStart based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>Extension.extension:timeFromEvent.extension:range.id</t>

--- a/StructureDefinition-ext-R5-EvidenceVariable.characteristic.xlsx
+++ b/StructureDefinition-ext-R5-EvidenceVariable.characteristic.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4665" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4665" uniqueCount="411">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,8 @@
 *  R4B: `EvidenceVariable.characteristic` 0..* `BackboneElement`
 *  R4: `EvidenceVariable.characteristic` 1..* `BackboneElement`
 Following are the generation technical comments:
-Element `EvidenceVariable.characteristic` is mapped to FHIR R4 element `EvidenceVariable.characteristic`.</t>
+Element `EvidenceVariable.characteristic` has is mapped to FHIR R4 element `EvidenceVariable.characteristic`, but has no comparisons.
+Note available implied context: `EvidenceVariable.characteristic.definitionByCombination.characteristic` because `EvidenceVariable.characteristic.definitionByCombination.characteristic` is defined as a content reference to `EvidenceVariable.characteristic`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -142,7 +143,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Extension.extension</t>
+    <t>element:EvidenceVariable.characteristic</t>
   </si>
   <si>
     <t>ID</t>
@@ -343,8 +344,8 @@
     <t>Label used for when a characteristic refers to another characteristic.</t>
   </si>
   <si>
-    <t>Element `EvidenceVariable.characteristic.linkId` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a component extension (e.g., if this element is used as a content reference).
-Element `EvidenceVariable.characteristic.linkId` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+    <t>Element `EvidenceVariable.characteristic.linkId` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a cross-version extension.
+Element `EvidenceVariable.characteristic.linkId` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>Extension.extension:linkId.id</t>
@@ -429,8 +430,8 @@
     <t>A short, natural language description of the characteristic that could be used to communicate the criteria to an end-user.</t>
   </si>
   <si>
-    <t>Need to be able to describe characteristics in natural language so that end users can understand the criteria. Element `EvidenceVariable.characteristic.description` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a component extension (e.g., if this element is used as a content reference).
-Element `EvidenceVariable.characteristic.description` is mapped to FHIR R4 element `EvidenceVariable.characteristic.description`.</t>
+    <t>Need to be able to describe characteristics in natural language so that end users can understand the criteria. Element `EvidenceVariable.characteristic.description` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a cross-version extension.
+Element `EvidenceVariable.characteristic.description` has is mapped to FHIR R4 element `EvidenceVariable.characteristic.description`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:description.id</t>
@@ -464,8 +465,8 @@
     <t>A human-readable string to clarify or explain concepts about the characteristic.</t>
   </si>
   <si>
-    <t>Element `EvidenceVariable.characteristic.note` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a component extension (e.g., if this element is used as a content reference).
-Element `EvidenceVariable.characteristic.note` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+    <t>Element `EvidenceVariable.characteristic.note` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a cross-version extension.
+Element `EvidenceVariable.characteristic.note` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>Extension.extension:note.id</t>
@@ -499,8 +500,8 @@
     <t>When true, this characteristic is an exclusion criterion. In other words, not matching this characteristic definition is equivalent to meeting this criterion.</t>
   </si>
   <si>
-    <t>Element `EvidenceVariable.characteristic.exclude` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a component extension (e.g., if this element is used as a content reference).
-Element `EvidenceVariable.characteristic.exclude` is mapped to FHIR R4 element `EvidenceVariable.characteristic.exclude`.</t>
+    <t>Element `EvidenceVariable.characteristic.exclude` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a cross-version extension.
+Element `EvidenceVariable.characteristic.exclude` has is mapped to FHIR R4 element `EvidenceVariable.characteristic.exclude`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:exclude.id</t>
@@ -534,9 +535,9 @@
     <t>Defines the characteristic using a Reference.</t>
   </si>
   <si>
-    <t>Element `EvidenceVariable.characteristic.definitionReference` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a component extension (e.g., if this element is used as a content reference).
+    <t>Element `EvidenceVariable.characteristic.definitionReference` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a cross-version extension.
 Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `EvidenceVariable.characteristic.definitionReference` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `EvidenceVariable.characteristic.definitionReference` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+Element `EvidenceVariable.characteristic.definitionReference` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>Extension.extension:definitionReference.id</t>
@@ -570,9 +571,9 @@
     <t>Defines the characteristic using Canonical.</t>
   </si>
   <si>
-    <t>Element `EvidenceVariable.characteristic.definitionCanonical` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a component extension (e.g., if this element is used as a content reference).
+    <t>Element `EvidenceVariable.characteristic.definitionCanonical` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a cross-version extension.
 Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `EvidenceVariable.characteristic.definitionCanonical` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
-Element `EvidenceVariable.characteristic.definitionCanonical` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+Element `EvidenceVariable.characteristic.definitionCanonical` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>Extension.extension:definitionCanonical.id</t>
@@ -606,8 +607,8 @@
     <t>Defines the characteristic using CodeableConcept.</t>
   </si>
   <si>
-    <t>Element `EvidenceVariable.characteristic.definitionCodeableConcept` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a component extension (e.g., if this element is used as a content reference).
-Element `EvidenceVariable.characteristic.definitionCodeableConcept` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+    <t>Element `EvidenceVariable.characteristic.definitionCodeableConcept` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a cross-version extension.
+Element `EvidenceVariable.characteristic.definitionCodeableConcept` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>Extension.extension:definitionCodeableConcept.id</t>
@@ -644,8 +645,8 @@
     <t>When another element provides a definition of the characteristic, the definitionExpression content SHALL match the definition (only adding technical concepts necessary for implementation) without changing the meaning.</t>
   </si>
   <si>
-    <t>Element `EvidenceVariable.characteristic.definitionExpression` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a component extension (e.g., if this element is used as a content reference).
-Element `EvidenceVariable.characteristic.definitionExpression` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+    <t>Element `EvidenceVariable.characteristic.definitionExpression` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a cross-version extension.
+Element `EvidenceVariable.characteristic.definitionExpression` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>Extension.extension:definitionExpression.id</t>
@@ -679,8 +680,8 @@
     <t>Defines the characteristic using id.</t>
   </si>
   <si>
-    <t>Element `EvidenceVariable.characteristic.definitionId` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a component extension (e.g., if this element is used as a content reference).
-Element `EvidenceVariable.characteristic.definitionId` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+    <t>Element `EvidenceVariable.characteristic.definitionId` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a cross-version extension.
+Element `EvidenceVariable.characteristic.definitionId` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>Extension.extension:definitionId.id</t>
@@ -710,8 +711,8 @@
     <t>Defines the characteristic using both a type and value[x] elements.</t>
   </si>
   <si>
-    <t>Element `EvidenceVariable.characteristic.definitionByTypeAndValue` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a component extension (e.g., if this element is used as a content reference).
-Element `EvidenceVariable.characteristic.definitionByTypeAndValue` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+    <t>Element `EvidenceVariable.characteristic.definitionByTypeAndValue` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a cross-version extension.
+Element `EvidenceVariable.characteristic.definitionByTypeAndValue` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>Extension.extension:definitionByTypeAndValue.id</t>
@@ -736,7 +737,7 @@
   </si>
   <si>
     <t>Element `EvidenceVariable.characteristic.definitionByTypeAndValue.type` is part of an existing definition because parent element `EvidenceVariable.characteristic.definitionByTypeAndValue` requires a cross-version extension.
-Element `EvidenceVariable.characteristic.definitionByTypeAndValue.type` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+Element `EvidenceVariable.characteristic.definitionByTypeAndValue.type` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>Extension.extension:definitionByTypeAndValue.extension:type.id</t>
@@ -757,6 +758,9 @@
     <t>Extension.extension.extension.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.characteristic.definitionByTypeAndValue.type</t>
+  </si>
+  <si>
     <t>Extension.extension:definitionByTypeAndValue.extension:type.value[x]</t>
   </si>
   <si>
@@ -782,7 +786,7 @@
   </si>
   <si>
     <t>Element `EvidenceVariable.characteristic.definitionByTypeAndValue.method` is part of an existing definition because parent element `EvidenceVariable.characteristic.definitionByTypeAndValue` requires a cross-version extension.
-Element `EvidenceVariable.characteristic.definitionByTypeAndValue.method` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+Element `EvidenceVariable.characteristic.definitionByTypeAndValue.method` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>Extension.extension:definitionByTypeAndValue.extension:method.id</t>
@@ -792,6 +796,9 @@
   </si>
   <si>
     <t>Extension.extension:definitionByTypeAndValue.extension:method.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.characteristic.definitionByTypeAndValue.method</t>
   </si>
   <si>
     <t>Extension.extension:definitionByTypeAndValue.extension:method.value[x]</t>
@@ -811,7 +818,7 @@
   <si>
     <t>Element `EvidenceVariable.characteristic.definitionByTypeAndValue.device` is part of an existing definition because parent element `EvidenceVariable.characteristic.definitionByTypeAndValue` requires a cross-version extension.
 Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `EvidenceVariable.characteristic.definitionByTypeAndValue.device` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `EvidenceVariable.characteristic.definitionByTypeAndValue.device` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+Element `EvidenceVariable.characteristic.definitionByTypeAndValue.device` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>Extension.extension:definitionByTypeAndValue.extension:device.id</t>
@@ -821,6 +828,9 @@
   </si>
   <si>
     <t>Extension.extension:definitionByTypeAndValue.extension:device.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.characteristic.definitionByTypeAndValue.device</t>
   </si>
   <si>
     <t>Extension.extension:definitionByTypeAndValue.extension:device.value[x]</t>
@@ -843,7 +853,7 @@
   </si>
   <si>
     <t>Element `EvidenceVariable.characteristic.definitionByTypeAndValue.value[x]` is part of an existing definition because parent element `EvidenceVariable.characteristic.definitionByTypeAndValue` requires a cross-version extension.
-Element `EvidenceVariable.characteristic.definitionByTypeAndValue.value[x]` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+Element `EvidenceVariable.characteristic.definitionByTypeAndValue.value[x]` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>Extension.extension:definitionByTypeAndValue.extension:value.id</t>
@@ -853,6 +863,9 @@
   </si>
   <si>
     <t>Extension.extension:definitionByTypeAndValue.extension:value.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.characteristic.definitionByTypeAndValue.value</t>
   </si>
   <si>
     <t>Extension.extension:definitionByTypeAndValue.extension:value.value[x]</t>
@@ -875,7 +888,7 @@
   </si>
   <si>
     <t>Element `EvidenceVariable.characteristic.definitionByTypeAndValue.offset` is part of an existing definition because parent element `EvidenceVariable.characteristic.definitionByTypeAndValue` requires a cross-version extension.
-Element `EvidenceVariable.characteristic.definitionByTypeAndValue.offset` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+Element `EvidenceVariable.characteristic.definitionByTypeAndValue.offset` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>Extension.extension:definitionByTypeAndValue.extension:offset.id</t>
@@ -885,6 +898,9 @@
   </si>
   <si>
     <t>Extension.extension:definitionByTypeAndValue.extension:offset.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.characteristic.definitionByTypeAndValue.offset</t>
   </si>
   <si>
     <t>Extension.extension:definitionByTypeAndValue.extension:offset.value[x]</t>
@@ -921,8 +937,8 @@
     <t>Defines the characteristic as a combination of two or more characteristics.</t>
   </si>
   <si>
-    <t>Element `EvidenceVariable.characteristic.definitionByCombination` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a component extension (e.g., if this element is used as a content reference).
-Element `EvidenceVariable.characteristic.definitionByCombination` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+    <t>Element `EvidenceVariable.characteristic.definitionByCombination` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a cross-version extension.
+Element `EvidenceVariable.characteristic.definitionByCombination` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>Extension.extension:definitionByCombination.id</t>
@@ -944,7 +960,7 @@
   </si>
   <si>
     <t>If code is "at-least" or "at-most" then threshold SHALL be used. If code is neither "at-least" nor "at-most" then threshold SHALL NOT be used. Element `EvidenceVariable.characteristic.definitionByCombination.code` is part of an existing definition because parent element `EvidenceVariable.characteristic.definitionByCombination` requires a cross-version extension.
-Element `EvidenceVariable.characteristic.definitionByCombination.code` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+Element `EvidenceVariable.characteristic.definitionByCombination.code` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>Extension.extension:definitionByCombination.extension:code.id</t>
@@ -954,6 +970,9 @@
   </si>
   <si>
     <t>Extension.extension:definitionByCombination.extension:code.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.characteristic.definitionByCombination.code</t>
   </si>
   <si>
     <t>Extension.extension:definitionByCombination.extension:code.value[x]</t>
@@ -982,7 +1001,7 @@
   </si>
   <si>
     <t>Element `EvidenceVariable.characteristic.definitionByCombination.threshold` is part of an existing definition because parent element `EvidenceVariable.characteristic.definitionByCombination` requires a cross-version extension.
-Element `EvidenceVariable.characteristic.definitionByCombination.threshold` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+Element `EvidenceVariable.characteristic.definitionByCombination.threshold` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>Extension.extension:definitionByCombination.extension:threshold.id</t>
@@ -992,6 +1011,9 @@
   </si>
   <si>
     <t>Extension.extension:definitionByCombination.extension:threshold.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.characteristic.definitionByCombination.threshold</t>
   </si>
   <si>
     <t>Extension.extension:definitionByCombination.extension:threshold.value[x]</t>
@@ -1014,7 +1036,7 @@
   </si>
   <si>
     <t>Element `EvidenceVariable.characteristic.definitionByCombination.characteristic` is part of an existing definition because parent element `EvidenceVariable.characteristic.definitionByCombination` requires a cross-version extension.
-Element `EvidenceVariable.characteristic.definitionByCombination.characteristic` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+Element `EvidenceVariable.characteristic.definitionByCombination.characteristic` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>Extension.extension:definitionByCombination.extension:characteristic.id</t>
@@ -1050,8 +1072,8 @@
     <t>Number of occurrences meeting the characteristic.</t>
   </si>
   <si>
-    <t>Element `EvidenceVariable.characteristic.instances[x]` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a component extension (e.g., if this element is used as a content reference).
-Element `EvidenceVariable.characteristic.instances[x]` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+    <t>Element `EvidenceVariable.characteristic.instances[x]` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a cross-version extension.
+Element `EvidenceVariable.characteristic.instances[x]` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>Extension.extension:instances.id</t>
@@ -1085,8 +1107,8 @@
     <t>Length of time in which the characteristic is met.</t>
   </si>
   <si>
-    <t>Element `EvidenceVariable.characteristic.duration[x]` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a component extension (e.g., if this element is used as a content reference).
-Element `EvidenceVariable.characteristic.duration[x]` is will have a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+    <t>Element `EvidenceVariable.characteristic.duration[x]` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a cross-version extension.
+Element `EvidenceVariable.characteristic.duration[x]` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>Extension.extension:duration.id</t>
@@ -1116,8 +1138,8 @@
     <t>Timing in which the characteristic is determined.</t>
   </si>
   <si>
-    <t>Element `EvidenceVariable.characteristic.timeFromEvent` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a component extension (e.g., if this element is used as a content reference).
-Element `EvidenceVariable.characteristic.timeFromEvent` is mapped to FHIR R4 element `EvidenceVariable.characteristic.timeFromStart`.</t>
+    <t>Element `EvidenceVariable.characteristic.timeFromEvent` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a cross-version extension.
+Element `EvidenceVariable.characteristic.timeFromEvent` has is mapped to FHIR R4 element `EvidenceVariable.characteristic.timeFromStart`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:timeFromEvent.id</t>
@@ -1135,7 +1157,8 @@
     <t>Human readable description.</t>
   </si>
   <si>
-    <t>Element `EvidenceVariable.characteristic.timeFromEvent.description` is will have a context of EvidenceVariable.characteristic.timeFromStart based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+    <t>Element `EvidenceVariable.characteristic.timeFromEvent.description` is part of an existing definition because parent element `EvidenceVariable.characteristic.timeFromEvent` requires a cross-version extension.
+Element `EvidenceVariable.characteristic.timeFromEvent.description` has a context of EvidenceVariable.characteristic.timeFromStart based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>Extension.extension:timeFromEvent.extension:description.id</t>
@@ -1147,6 +1170,9 @@
     <t>Extension.extension:timeFromEvent.extension:description.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.characteristic.timeFromEvent.description</t>
+  </si>
+  <si>
     <t>Extension.extension:timeFromEvent.extension:description.value[x]</t>
   </si>
   <si>
@@ -1156,7 +1182,8 @@
     <t>A human-readable string to clarify or explain concepts about the timeFromEvent.</t>
   </si>
   <si>
-    <t>Element `EvidenceVariable.characteristic.timeFromEvent.note` is will have a context of EvidenceVariable.characteristic.timeFromStart based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+    <t>Element `EvidenceVariable.characteristic.timeFromEvent.note` is part of an existing definition because parent element `EvidenceVariable.characteristic.timeFromEvent` requires a cross-version extension.
+Element `EvidenceVariable.characteristic.timeFromEvent.note` has a context of EvidenceVariable.characteristic.timeFromStart based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>Extension.extension:timeFromEvent.extension:note.id</t>
@@ -1168,6 +1195,9 @@
     <t>Extension.extension:timeFromEvent.extension:note.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.characteristic.timeFromEvent.note</t>
+  </si>
+  <si>
     <t>Extension.extension:timeFromEvent.extension:note.value[x]</t>
   </si>
   <si>
@@ -1183,7 +1213,8 @@
     <t>The event used as a base point (reference point) in time.</t>
   </si>
   <si>
-    <t>Element `EvidenceVariable.characteristic.timeFromEvent.event[x]` is will have a context of EvidenceVariable.characteristic.timeFromStart based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+    <t>Element `EvidenceVariable.characteristic.timeFromEvent.event[x]` is part of an existing definition because parent element `EvidenceVariable.characteristic.timeFromEvent` requires a cross-version extension.
+Element `EvidenceVariable.characteristic.timeFromEvent.event[x]` has a context of EvidenceVariable.characteristic.timeFromStart based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>Extension.extension:timeFromEvent.extension:event.id</t>
@@ -1193,6 +1224,9 @@
   </si>
   <si>
     <t>Extension.extension:timeFromEvent.extension:event.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.characteristic.timeFromEvent.event</t>
   </si>
   <si>
     <t>Extension.extension:timeFromEvent.extension:event.value[x]</t>
@@ -1214,7 +1248,8 @@
     <t>Used to express the observation at a defined amount of time before or after the event.</t>
   </si>
   <si>
-    <t>Element `EvidenceVariable.characteristic.timeFromEvent.quantity` is will have a context of EvidenceVariable.characteristic.timeFromStart based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+    <t>Element `EvidenceVariable.characteristic.timeFromEvent.quantity` is part of an existing definition because parent element `EvidenceVariable.characteristic.timeFromEvent` requires a cross-version extension.
+Element `EvidenceVariable.characteristic.timeFromEvent.quantity` has a context of EvidenceVariable.characteristic.timeFromStart based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>Extension.extension:timeFromEvent.extension:quantity.id</t>
@@ -1224,6 +1259,9 @@
   </si>
   <si>
     <t>Extension.extension:timeFromEvent.extension:quantity.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.characteristic.timeFromEvent.quantity</t>
   </si>
   <si>
     <t>Extension.extension:timeFromEvent.extension:quantity.value[x]</t>
@@ -1245,7 +1283,8 @@
     <t>Used to express the observation within a period before and/or after the event.</t>
   </si>
   <si>
-    <t>Element `EvidenceVariable.characteristic.timeFromEvent.range` is will have a context of EvidenceVariable.characteristic.timeFromStart based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+    <t>Element `EvidenceVariable.characteristic.timeFromEvent.range` is part of an existing definition because parent element `EvidenceVariable.characteristic.timeFromEvent` requires a cross-version extension.
+Element `EvidenceVariable.characteristic.timeFromEvent.range` has a context of EvidenceVariable.characteristic.timeFromStart based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
   </si>
   <si>
     <t>Extension.extension:timeFromEvent.extension:range.id</t>
@@ -1255,6 +1294,9 @@
   </si>
   <si>
     <t>Extension.extension:timeFromEvent.extension:range.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.characteristic.timeFromEvent.range</t>
   </si>
   <si>
     <t>Extension.extension:timeFromEvent.extension:range.value[x]</t>
@@ -7442,7 +7484,7 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>77</v>
@@ -7504,10 +7546,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7563,11 +7605,11 @@
         <v>77</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Y57" s="2"/>
       <c r="Z57" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>77</v>
@@ -7605,13 +7647,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>77</v>
@@ -7636,14 +7678,14 @@
         <v>94</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -7712,7 +7754,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>229</v>
@@ -7815,7 +7857,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>231</v>
@@ -7920,7 +7962,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>233</v>
@@ -7963,7 +8005,7 @@
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="S61" t="s" s="2">
         <v>77</v>
@@ -8025,10 +8067,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8054,10 +8096,10 @@
         <v>192</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8128,13 +8170,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>77</v>
@@ -8159,14 +8201,14 @@
         <v>94</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>77</v>
@@ -8235,7 +8277,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>229</v>
@@ -8338,7 +8380,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>231</v>
@@ -8443,7 +8485,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>233</v>
@@ -8486,7 +8528,7 @@
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" t="s" s="2">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>77</v>
@@ -8548,10 +8590,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8574,13 +8616,13 @@
         <v>77</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -8651,13 +8693,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>77</v>
@@ -8682,14 +8724,14 @@
         <v>94</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>77</v>
@@ -8758,7 +8800,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>229</v>
@@ -8861,7 +8903,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>231</v>
@@ -8966,7 +9008,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>233</v>
@@ -9009,7 +9051,7 @@
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" t="s" s="2">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="S71" t="s" s="2">
         <v>77</v>
@@ -9071,10 +9113,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9097,13 +9139,13 @@
         <v>77</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9174,13 +9216,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D73" t="s" s="2">
         <v>77</v>
@@ -9205,14 +9247,14 @@
         <v>94</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>77</v>
@@ -9281,7 +9323,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>229</v>
@@ -9384,7 +9426,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>231</v>
@@ -9489,7 +9531,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>233</v>
@@ -9532,7 +9574,7 @@
       </c>
       <c r="Q76" s="2"/>
       <c r="R76" t="s" s="2">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="S76" t="s" s="2">
         <v>77</v>
@@ -9594,10 +9636,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -9623,10 +9665,10 @@
         <v>192</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -9697,7 +9739,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>114</v>
@@ -9740,7 +9782,7 @@
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>77</v>
@@ -9802,7 +9844,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>123</v>
@@ -9828,13 +9870,13 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -9905,13 +9947,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>77</v>
@@ -9936,14 +9978,14 @@
         <v>94</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>77</v>
@@ -10012,7 +10054,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>106</v>
@@ -10115,7 +10157,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>108</v>
@@ -10218,13 +10260,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>77</v>
@@ -10249,14 +10291,14 @@
         <v>94</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>77</v>
@@ -10325,7 +10367,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>229</v>
@@ -10428,7 +10470,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>231</v>
@@ -10533,7 +10575,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>233</v>
@@ -10576,7 +10618,7 @@
       </c>
       <c r="Q86" s="2"/>
       <c r="R86" t="s" s="2">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>77</v>
@@ -10638,10 +10680,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -10664,13 +10706,13 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -10697,11 +10739,11 @@
         <v>77</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="Y87" s="2"/>
       <c r="Z87" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>77</v>
@@ -10739,13 +10781,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="D88" t="s" s="2">
         <v>77</v>
@@ -10770,14 +10812,14 @@
         <v>94</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>77</v>
@@ -10846,7 +10888,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>229</v>
@@ -10949,7 +10991,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>231</v>
@@ -11054,7 +11096,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>233</v>
@@ -11097,7 +11139,7 @@
       </c>
       <c r="Q91" s="2"/>
       <c r="R91" t="s" s="2">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="S91" t="s" s="2">
         <v>77</v>
@@ -11159,10 +11201,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11185,13 +11227,13 @@
         <v>77</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -11262,13 +11304,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="D93" t="s" s="2">
         <v>77</v>
@@ -11293,14 +11335,14 @@
         <v>94</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>77</v>
@@ -11369,7 +11411,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>229</v>
@@ -11472,7 +11514,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>231</v>
@@ -11577,7 +11619,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>233</v>
@@ -11682,10 +11724,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -11708,13 +11750,13 @@
         <v>77</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -11785,7 +11827,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>114</v>
@@ -11828,7 +11870,7 @@
       </c>
       <c r="Q98" s="2"/>
       <c r="R98" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="S98" t="s" s="2">
         <v>77</v>
@@ -11890,7 +11932,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>123</v>
@@ -11916,13 +11958,13 @@
         <v>77</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -11993,13 +12035,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D100" t="s" s="2">
         <v>77</v>
@@ -12024,14 +12066,14 @@
         <v>94</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>77</v>
@@ -12100,7 +12142,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>106</v>
@@ -12203,7 +12245,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>108</v>
@@ -12308,7 +12350,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>114</v>
@@ -12351,7 +12393,7 @@
       </c>
       <c r="Q103" s="2"/>
       <c r="R103" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="S103" t="s" s="2">
         <v>77</v>
@@ -12413,7 +12455,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>123</v>
@@ -12439,13 +12481,13 @@
         <v>77</v>
       </c>
       <c r="K104" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="M104" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -12516,13 +12558,13 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="D105" t="s" s="2">
         <v>77</v>
@@ -12547,14 +12589,14 @@
         <v>94</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>77</v>
@@ -12623,7 +12665,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>106</v>
@@ -12726,7 +12768,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>108</v>
@@ -12831,7 +12873,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>114</v>
@@ -12874,7 +12916,7 @@
       </c>
       <c r="Q108" s="2"/>
       <c r="R108" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="S108" t="s" s="2">
         <v>77</v>
@@ -12936,7 +12978,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>123</v>
@@ -12962,13 +13004,13 @@
         <v>77</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -13039,13 +13081,13 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D110" t="s" s="2">
         <v>77</v>
@@ -13070,14 +13112,14 @@
         <v>94</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>77</v>
@@ -13146,7 +13188,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>106</v>
@@ -13249,7 +13291,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>108</v>
@@ -13352,7 +13394,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>108</v>
@@ -13383,14 +13425,14 @@
         <v>94</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>77</v>
@@ -13459,7 +13501,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>229</v>
@@ -13562,7 +13604,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>231</v>
@@ -13667,7 +13709,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>233</v>
@@ -13710,7 +13752,7 @@
       </c>
       <c r="Q116" s="2"/>
       <c r="R116" t="s" s="2">
-        <v>128</v>
+        <v>365</v>
       </c>
       <c r="S116" t="s" s="2">
         <v>77</v>
@@ -13772,10 +13814,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -13801,10 +13843,10 @@
         <v>137</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -13875,7 +13917,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>108</v>
@@ -13909,11 +13951,11 @@
         <v>140</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>77</v>
@@ -13982,7 +14024,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>229</v>
@@ -14085,7 +14127,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>231</v>
@@ -14190,7 +14232,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>233</v>
@@ -14233,7 +14275,7 @@
       </c>
       <c r="Q121" s="2"/>
       <c r="R121" t="s" s="2">
-        <v>139</v>
+        <v>373</v>
       </c>
       <c r="S121" t="s" s="2">
         <v>77</v>
@@ -14295,10 +14337,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -14327,7 +14369,7 @@
         <v>140</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -14398,13 +14440,13 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="D123" t="s" s="2">
         <v>77</v>
@@ -14429,14 +14471,14 @@
         <v>94</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>77</v>
@@ -14505,7 +14547,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>229</v>
@@ -14608,7 +14650,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>231</v>
@@ -14713,7 +14755,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>233</v>
@@ -14756,7 +14798,7 @@
       </c>
       <c r="Q126" s="2"/>
       <c r="R126" t="s" s="2">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="S126" t="s" s="2">
         <v>77</v>
@@ -14818,10 +14860,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -14844,13 +14886,13 @@
         <v>77</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
@@ -14921,13 +14963,13 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="D128" t="s" s="2">
         <v>77</v>
@@ -14952,14 +14994,14 @@
         <v>94</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>77</v>
@@ -15028,7 +15070,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>229</v>
@@ -15131,7 +15173,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>231</v>
@@ -15236,7 +15278,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>233</v>
@@ -15279,7 +15321,7 @@
       </c>
       <c r="Q131" s="2"/>
       <c r="R131" t="s" s="2">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="S131" t="s" s="2">
         <v>77</v>
@@ -15341,10 +15383,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -15367,13 +15409,13 @@
         <v>77</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" s="2"/>
@@ -15444,13 +15486,13 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="D133" t="s" s="2">
         <v>77</v>
@@ -15475,14 +15517,14 @@
         <v>94</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="P133" t="s" s="2">
         <v>77</v>
@@ -15551,7 +15593,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>229</v>
@@ -15654,7 +15696,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>231</v>
@@ -15759,7 +15801,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>233</v>
@@ -15802,7 +15844,7 @@
       </c>
       <c r="Q136" s="2"/>
       <c r="R136" t="s" s="2">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="S136" t="s" s="2">
         <v>77</v>
@@ -15864,10 +15906,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -15890,13 +15932,13 @@
         <v>77</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
@@ -15967,7 +16009,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>114</v>
@@ -16010,7 +16052,7 @@
       </c>
       <c r="Q138" s="2"/>
       <c r="R138" t="s" s="2">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="S138" t="s" s="2">
         <v>77</v>
@@ -16072,7 +16114,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>123</v>
@@ -16098,13 +16140,13 @@
         <v>77</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" s="2"/>
@@ -16306,13 +16348,13 @@
         <v>77</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="N141" s="2"/>
       <c r="O141" s="2"/>

--- a/StructureDefinition-ext-R5-EvidenceVariable.characteristic.xlsx
+++ b/StructureDefinition-ext-R5-EvidenceVariable.characteristic.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4665" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4666" uniqueCount="409">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -128,7 +128,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -555,7 +555,7 @@
     <t>Extension.extension:definitionReference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-EvidenceVariable|0.0.1-snapshot-3|EvidenceVariable|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Group|0.0.1-snapshot-3|Group|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Evidence|0.0.1-snapshot-3|Evidence|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-EvidenceVariable|EvidenceVariable|http://hl7.org/fhir/5.0/StructureDefinition/profile-Group|Group|http://hl7.org/fhir/5.0/StructureDefinition/profile-Evidence|Evidence)
 </t>
   </si>
   <si>
@@ -591,7 +591,7 @@
     <t>Extension.extension:definitionCanonical.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-EvidenceVariable|0.0.1-snapshot-3|EvidenceVariable|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Evidence|0.0.1-snapshot-3|Evidence|4.0.1)
+    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-EvidenceVariable|EvidenceVariable|http://hl7.org/fhir/5.0/StructureDefinition/profile-Evidence|Evidence)
 </t>
   </si>
   <si>
@@ -765,12 +765,6 @@
   </si>
   <si>
     <t>Extension.extension.extension.value[x]</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-usage-context-type-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:definitionByTypeAndValue.extension:method</t>
@@ -836,7 +830,7 @@
     <t>Extension.extension:definitionByTypeAndValue.extension:device.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|0.0.1-snapshot-3|Device|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceMetric|0.0.1-snapshot-3|DeviceMetric|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|Device|http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceMetric|DeviceMetric)
 </t>
   </si>
   <si>
@@ -985,7 +979,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-characteristic-combination-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-characteristic-combination-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:definitionByCombination.extension:threshold</t>
@@ -1663,7 +1657,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="79.3203125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="60.828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -7605,11 +7599,13 @@
         <v>77</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="Y57" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z57" t="s" s="2">
-        <v>238</v>
+        <v>77</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>77</v>
@@ -7647,13 +7643,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>77</v>
@@ -7678,14 +7674,14 @@
         <v>94</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -7754,7 +7750,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>229</v>
@@ -7857,7 +7853,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>231</v>
@@ -7962,7 +7958,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>233</v>
@@ -8005,7 +8001,7 @@
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="S61" t="s" s="2">
         <v>77</v>
@@ -8067,7 +8063,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>236</v>
@@ -8096,10 +8092,10 @@
         <v>192</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8170,13 +8166,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>77</v>
@@ -8201,14 +8197,14 @@
         <v>94</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>77</v>
@@ -8277,7 +8273,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>229</v>
@@ -8380,7 +8376,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>231</v>
@@ -8485,7 +8481,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>233</v>
@@ -8528,7 +8524,7 @@
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>77</v>
@@ -8590,7 +8586,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>236</v>
@@ -8616,13 +8612,13 @@
         <v>77</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -8693,13 +8689,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>77</v>
@@ -8724,14 +8720,14 @@
         <v>94</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>77</v>
@@ -8800,7 +8796,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>229</v>
@@ -8903,7 +8899,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>231</v>
@@ -9008,7 +9004,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>233</v>
@@ -9051,7 +9047,7 @@
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="S71" t="s" s="2">
         <v>77</v>
@@ -9113,7 +9109,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>236</v>
@@ -9139,13 +9135,13 @@
         <v>77</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9216,13 +9212,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D73" t="s" s="2">
         <v>77</v>
@@ -9247,14 +9243,14 @@
         <v>94</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>77</v>
@@ -9323,7 +9319,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>229</v>
@@ -9426,7 +9422,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>231</v>
@@ -9531,7 +9527,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>233</v>
@@ -9574,7 +9570,7 @@
       </c>
       <c r="Q76" s="2"/>
       <c r="R76" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="S76" t="s" s="2">
         <v>77</v>
@@ -9636,7 +9632,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>236</v>
@@ -9665,10 +9661,10 @@
         <v>192</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -9739,7 +9735,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>114</v>
@@ -9782,7 +9778,7 @@
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>77</v>
@@ -9844,7 +9840,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>123</v>
@@ -9870,13 +9866,13 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -9947,13 +9943,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>77</v>
@@ -9978,14 +9974,14 @@
         <v>94</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>77</v>
@@ -10054,7 +10050,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>106</v>
@@ -10157,7 +10153,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>108</v>
@@ -10260,13 +10256,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>77</v>
@@ -10291,14 +10287,14 @@
         <v>94</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>77</v>
@@ -10367,7 +10363,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>229</v>
@@ -10470,7 +10466,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>231</v>
@@ -10575,7 +10571,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>233</v>
@@ -10618,7 +10614,7 @@
       </c>
       <c r="Q86" s="2"/>
       <c r="R86" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>77</v>
@@ -10680,7 +10676,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>236</v>
@@ -10706,13 +10702,13 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -10739,11 +10735,11 @@
         <v>77</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="Y87" s="2"/>
       <c r="Z87" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>77</v>
@@ -10781,13 +10777,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D88" t="s" s="2">
         <v>77</v>
@@ -10812,14 +10808,14 @@
         <v>94</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>77</v>
@@ -10888,7 +10884,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>229</v>
@@ -10991,7 +10987,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>231</v>
@@ -11096,7 +11092,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>233</v>
@@ -11139,7 +11135,7 @@
       </c>
       <c r="Q91" s="2"/>
       <c r="R91" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="S91" t="s" s="2">
         <v>77</v>
@@ -11201,7 +11197,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>236</v>
@@ -11227,13 +11223,13 @@
         <v>77</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -11304,13 +11300,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D93" t="s" s="2">
         <v>77</v>
@@ -11335,14 +11331,14 @@
         <v>94</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>77</v>
@@ -11411,7 +11407,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>229</v>
@@ -11514,7 +11510,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>231</v>
@@ -11619,7 +11615,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>233</v>
@@ -11724,7 +11720,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>236</v>
@@ -11750,13 +11746,13 @@
         <v>77</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M97" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -11827,7 +11823,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>114</v>
@@ -11870,7 +11866,7 @@
       </c>
       <c r="Q98" s="2"/>
       <c r="R98" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="S98" t="s" s="2">
         <v>77</v>
@@ -11932,7 +11928,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>123</v>
@@ -11958,13 +11954,13 @@
         <v>77</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M99" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -12035,13 +12031,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D100" t="s" s="2">
         <v>77</v>
@@ -12066,14 +12062,14 @@
         <v>94</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>77</v>
@@ -12142,7 +12138,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>106</v>
@@ -12245,7 +12241,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>108</v>
@@ -12350,7 +12346,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>114</v>
@@ -12393,7 +12389,7 @@
       </c>
       <c r="Q103" s="2"/>
       <c r="R103" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="S103" t="s" s="2">
         <v>77</v>
@@ -12455,7 +12451,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>123</v>
@@ -12481,13 +12477,13 @@
         <v>77</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -12558,13 +12554,13 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D105" t="s" s="2">
         <v>77</v>
@@ -12589,14 +12585,14 @@
         <v>94</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>77</v>
@@ -12665,7 +12661,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>106</v>
@@ -12768,7 +12764,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>108</v>
@@ -12873,7 +12869,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>114</v>
@@ -12916,7 +12912,7 @@
       </c>
       <c r="Q108" s="2"/>
       <c r="R108" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="S108" t="s" s="2">
         <v>77</v>
@@ -12978,7 +12974,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>123</v>
@@ -13004,13 +13000,13 @@
         <v>77</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -13081,13 +13077,13 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D110" t="s" s="2">
         <v>77</v>
@@ -13112,14 +13108,14 @@
         <v>94</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>77</v>
@@ -13188,7 +13184,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>106</v>
@@ -13291,7 +13287,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>108</v>
@@ -13394,7 +13390,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>108</v>
@@ -13425,14 +13421,14 @@
         <v>94</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>77</v>
@@ -13501,7 +13497,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>229</v>
@@ -13604,7 +13600,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>231</v>
@@ -13709,7 +13705,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>233</v>
@@ -13752,7 +13748,7 @@
       </c>
       <c r="Q116" s="2"/>
       <c r="R116" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="S116" t="s" s="2">
         <v>77</v>
@@ -13814,7 +13810,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>236</v>
@@ -13843,10 +13839,10 @@
         <v>137</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -13917,7 +13913,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>108</v>
@@ -13951,11 +13947,11 @@
         <v>140</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>77</v>
@@ -14024,7 +14020,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>229</v>
@@ -14127,7 +14123,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>231</v>
@@ -14232,7 +14228,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>233</v>
@@ -14275,7 +14271,7 @@
       </c>
       <c r="Q121" s="2"/>
       <c r="R121" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="S121" t="s" s="2">
         <v>77</v>
@@ -14337,7 +14333,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>236</v>
@@ -14369,7 +14365,7 @@
         <v>140</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -14440,13 +14436,13 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D123" t="s" s="2">
         <v>77</v>
@@ -14471,14 +14467,14 @@
         <v>94</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>77</v>
@@ -14547,7 +14543,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>229</v>
@@ -14650,7 +14646,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>231</v>
@@ -14755,7 +14751,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>233</v>
@@ -14798,7 +14794,7 @@
       </c>
       <c r="Q126" s="2"/>
       <c r="R126" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="S126" t="s" s="2">
         <v>77</v>
@@ -14860,7 +14856,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>236</v>
@@ -14886,13 +14882,13 @@
         <v>77</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
@@ -14963,13 +14959,13 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D128" t="s" s="2">
         <v>77</v>
@@ -14994,14 +14990,14 @@
         <v>94</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>77</v>
@@ -15070,7 +15066,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>229</v>
@@ -15173,7 +15169,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>231</v>
@@ -15278,7 +15274,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>233</v>
@@ -15321,7 +15317,7 @@
       </c>
       <c r="Q131" s="2"/>
       <c r="R131" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="S131" t="s" s="2">
         <v>77</v>
@@ -15383,7 +15379,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>236</v>
@@ -15409,13 +15405,13 @@
         <v>77</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" s="2"/>
@@ -15486,13 +15482,13 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D133" t="s" s="2">
         <v>77</v>
@@ -15517,14 +15513,14 @@
         <v>94</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="P133" t="s" s="2">
         <v>77</v>
@@ -15593,7 +15589,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>229</v>
@@ -15696,7 +15692,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>231</v>
@@ -15801,7 +15797,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>233</v>
@@ -15844,7 +15840,7 @@
       </c>
       <c r="Q136" s="2"/>
       <c r="R136" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="S136" t="s" s="2">
         <v>77</v>
@@ -15906,7 +15902,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>236</v>
@@ -15932,13 +15928,13 @@
         <v>77</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
@@ -16009,7 +16005,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>114</v>
@@ -16052,7 +16048,7 @@
       </c>
       <c r="Q138" s="2"/>
       <c r="R138" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="S138" t="s" s="2">
         <v>77</v>
@@ -16114,7 +16110,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>123</v>
@@ -16140,13 +16136,13 @@
         <v>77</v>
       </c>
       <c r="K139" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L139" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M139" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="L139" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" s="2"/>
@@ -16348,13 +16344,13 @@
         <v>77</v>
       </c>
       <c r="K141" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L141" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M141" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="L141" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M141" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="N141" s="2"/>
       <c r="O141" s="2"/>

--- a/StructureDefinition-ext-R5-EvidenceVariable.characteristic.xlsx
+++ b/StructureDefinition-ext-R5-EvidenceVariable.characteristic.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4666" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4662" uniqueCount="402">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,7 @@
 *  R4B: `EvidenceVariable.characteristic` 0..* `BackboneElement`
 *  R4: `EvidenceVariable.characteristic` 1..* `BackboneElement`
 Following are the generation technical comments:
-Element `EvidenceVariable.characteristic` has is mapped to FHIR R4 element `EvidenceVariable.characteristic`, but has no comparisons.
+Element `EvidenceVariable.characteristic` is mapped to FHIR R4 element `EvidenceVariable.characteristic` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.
 Note available implied context: `EvidenceVariable.characteristic.definitionByCombination.characteristic` because `EvidenceVariable.characteristic.definitionByCombination.characteristic` is defined as a content reference to `EvidenceVariable.characteristic`.</t>
   </si>
   <si>
@@ -128,7 +128,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -344,8 +344,8 @@
     <t>Label used for when a characteristic refers to another characteristic.</t>
   </si>
   <si>
-    <t>Element `EvidenceVariable.characteristic.linkId` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a cross-version extension.
-Element `EvidenceVariable.characteristic.linkId` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+    <t>Element `EvidenceVariable.characteristic.linkId` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.
+Note available implied context: `EvidenceVariable.characteristic.definitionByCombination.characteristic` because `EvidenceVariable.characteristic.definitionByCombination.characteristic` is defined via a content reference to `EvidenceVariable.characteristic`.</t>
   </si>
   <si>
     <t>Extension.extension:linkId.id</t>
@@ -430,8 +430,8 @@
     <t>A short, natural language description of the characteristic that could be used to communicate the criteria to an end-user.</t>
   </si>
   <si>
-    <t>Need to be able to describe characteristics in natural language so that end users can understand the criteria. Element `EvidenceVariable.characteristic.description` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a cross-version extension.
-Element `EvidenceVariable.characteristic.description` has is mapped to FHIR R4 element `EvidenceVariable.characteristic.description`, but has no comparisons.</t>
+    <t>Need to be able to describe characteristics in natural language so that end users can understand the criteria. Element `EvidenceVariable.characteristic.description` is mapped to FHIR R4 element `EvidenceVariable.characteristic.description` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.
+Note available implied context: `EvidenceVariable.characteristic.definitionByCombination.characteristic.description` because `EvidenceVariable.characteristic.definitionByCombination.characteristic` is defined via a content reference to `EvidenceVariable.characteristic`.</t>
   </si>
   <si>
     <t>Extension.extension:description.id</t>
@@ -465,8 +465,8 @@
     <t>A human-readable string to clarify or explain concepts about the characteristic.</t>
   </si>
   <si>
-    <t>Element `EvidenceVariable.characteristic.note` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a cross-version extension.
-Element `EvidenceVariable.characteristic.note` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+    <t>Element `EvidenceVariable.characteristic.note` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.
+Note available implied context: `EvidenceVariable.characteristic.definitionByCombination.characteristic` because `EvidenceVariable.characteristic.definitionByCombination.characteristic` is defined via a content reference to `EvidenceVariable.characteristic`.</t>
   </si>
   <si>
     <t>Extension.extension:note.id</t>
@@ -500,8 +500,8 @@
     <t>When true, this characteristic is an exclusion criterion. In other words, not matching this characteristic definition is equivalent to meeting this criterion.</t>
   </si>
   <si>
-    <t>Element `EvidenceVariable.characteristic.exclude` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a cross-version extension.
-Element `EvidenceVariable.characteristic.exclude` has is mapped to FHIR R4 element `EvidenceVariable.characteristic.exclude`, but has no comparisons.</t>
+    <t>Element `EvidenceVariable.characteristic.exclude` is mapped to FHIR R4 element `EvidenceVariable.characteristic.exclude` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.
+Note available implied context: `EvidenceVariable.characteristic.definitionByCombination.characteristic.exclude` because `EvidenceVariable.characteristic.definitionByCombination.characteristic` is defined via a content reference to `EvidenceVariable.characteristic`.</t>
   </si>
   <si>
     <t>Extension.extension:exclude.id</t>
@@ -535,9 +535,9 @@
     <t>Defines the characteristic using a Reference.</t>
   </si>
   <si>
-    <t>Element `EvidenceVariable.characteristic.definitionReference` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a cross-version extension.
-Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `EvidenceVariable.characteristic.definitionReference` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `EvidenceVariable.characteristic.definitionReference` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `EvidenceVariable.characteristic.definitionReference` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `EvidenceVariable.characteristic.definitionReference` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.
+Note available implied context: `EvidenceVariable.characteristic.definitionByCombination.characteristic` because `EvidenceVariable.characteristic.definitionByCombination.characteristic` is defined via a content reference to `EvidenceVariable.characteristic`.</t>
   </si>
   <si>
     <t>Extension.extension:definitionReference.id</t>
@@ -555,7 +555,7 @@
     <t>Extension.extension:definitionReference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-EvidenceVariable|EvidenceVariable|http://hl7.org/fhir/5.0/StructureDefinition/profile-Group|Group|http://hl7.org/fhir/5.0/StructureDefinition/profile-Evidence|Evidence)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-EvidenceVariable|0.0.1-snapshot-3|EvidenceVariable|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Group|0.0.1-snapshot-3|Group|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Evidence|0.0.1-snapshot-3|Evidence|4.0.1)
 </t>
   </si>
   <si>
@@ -571,9 +571,9 @@
     <t>Defines the characteristic using Canonical.</t>
   </si>
   <si>
-    <t>Element `EvidenceVariable.characteristic.definitionCanonical` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a cross-version extension.
-Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `EvidenceVariable.characteristic.definitionCanonical` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
-Element `EvidenceVariable.characteristic.definitionCanonical` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `EvidenceVariable.characteristic.definitionCanonical` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
+Element `EvidenceVariable.characteristic.definitionCanonical` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.
+Note available implied context: `EvidenceVariable.characteristic.definitionByCombination.characteristic` because `EvidenceVariable.characteristic.definitionByCombination.characteristic` is defined via a content reference to `EvidenceVariable.characteristic`.</t>
   </si>
   <si>
     <t>Extension.extension:definitionCanonical.id</t>
@@ -591,7 +591,7 @@
     <t>Extension.extension:definitionCanonical.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-EvidenceVariable|EvidenceVariable|http://hl7.org/fhir/5.0/StructureDefinition/profile-Evidence|Evidence)
+    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-EvidenceVariable|0.0.1-snapshot-3|EvidenceVariable|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Evidence|0.0.1-snapshot-3|Evidence|4.0.1)
 </t>
   </si>
   <si>
@@ -607,8 +607,8 @@
     <t>Defines the characteristic using CodeableConcept.</t>
   </si>
   <si>
-    <t>Element `EvidenceVariable.characteristic.definitionCodeableConcept` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a cross-version extension.
-Element `EvidenceVariable.characteristic.definitionCodeableConcept` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+    <t>Element `EvidenceVariable.characteristic.definitionCodeableConcept` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.
+Note available implied context: `EvidenceVariable.characteristic.definitionByCombination.characteristic` because `EvidenceVariable.characteristic.definitionByCombination.characteristic` is defined via a content reference to `EvidenceVariable.characteristic`.</t>
   </si>
   <si>
     <t>Extension.extension:definitionCodeableConcept.id</t>
@@ -645,8 +645,8 @@
     <t>When another element provides a definition of the characteristic, the definitionExpression content SHALL match the definition (only adding technical concepts necessary for implementation) without changing the meaning.</t>
   </si>
   <si>
-    <t>Element `EvidenceVariable.characteristic.definitionExpression` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a cross-version extension.
-Element `EvidenceVariable.characteristic.definitionExpression` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+    <t>Element `EvidenceVariable.characteristic.definitionExpression` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.
+Note available implied context: `EvidenceVariable.characteristic.definitionByCombination.characteristic` because `EvidenceVariable.characteristic.definitionByCombination.characteristic` is defined via a content reference to `EvidenceVariable.characteristic`.</t>
   </si>
   <si>
     <t>Extension.extension:definitionExpression.id</t>
@@ -680,8 +680,8 @@
     <t>Defines the characteristic using id.</t>
   </si>
   <si>
-    <t>Element `EvidenceVariable.characteristic.definitionId` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a cross-version extension.
-Element `EvidenceVariable.characteristic.definitionId` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+    <t>Element `EvidenceVariable.characteristic.definitionId` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.
+Note available implied context: `EvidenceVariable.characteristic.definitionByCombination.characteristic` because `EvidenceVariable.characteristic.definitionByCombination.characteristic` is defined via a content reference to `EvidenceVariable.characteristic`.</t>
   </si>
   <si>
     <t>Extension.extension:definitionId.id</t>
@@ -711,8 +711,8 @@
     <t>Defines the characteristic using both a type and value[x] elements.</t>
   </si>
   <si>
-    <t>Element `EvidenceVariable.characteristic.definitionByTypeAndValue` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a cross-version extension.
-Element `EvidenceVariable.characteristic.definitionByTypeAndValue` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+    <t>Element `EvidenceVariable.characteristic.definitionByTypeAndValue` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.
+Note available implied context: `EvidenceVariable.characteristic.definitionByCombination.characteristic` because `EvidenceVariable.characteristic.definitionByCombination.characteristic` is defined via a content reference to `EvidenceVariable.characteristic`.</t>
   </si>
   <si>
     <t>Extension.extension:definitionByTypeAndValue.id</t>
@@ -736,8 +736,8 @@
     <t>Used to express the type of characteristic.</t>
   </si>
   <si>
-    <t>Element `EvidenceVariable.characteristic.definitionByTypeAndValue.type` is part of an existing definition because parent element `EvidenceVariable.characteristic.definitionByTypeAndValue` requires a cross-version extension.
-Element `EvidenceVariable.characteristic.definitionByTypeAndValue.type` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+    <t>Element `EvidenceVariable.characteristic.definitionByTypeAndValue.type` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.
+Note available implied context: `EvidenceVariable.characteristic.definitionByCombination.characteristic` because `EvidenceVariable.characteristic.definitionByCombination.characteristic` is defined via a content reference to `EvidenceVariable.characteristic`.</t>
   </si>
   <si>
     <t>Extension.extension:definitionByTypeAndValue.extension:type.id</t>
@@ -758,15 +758,18 @@
     <t>Extension.extension.extension.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.characteristic.definitionByTypeAndValue.type</t>
-  </si>
-  <si>
     <t>Extension.extension:definitionByTypeAndValue.extension:type.value[x]</t>
   </si>
   <si>
     <t>Extension.extension.extension.value[x]</t>
   </si>
   <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/usage-context-type|4.0.1</t>
+  </si>
+  <si>
     <t>Extension.extension:definitionByTypeAndValue.extension:method</t>
   </si>
   <si>
@@ -779,8 +782,8 @@
     <t>Method for how the characteristic value was determined.</t>
   </si>
   <si>
-    <t>Element `EvidenceVariable.characteristic.definitionByTypeAndValue.method` is part of an existing definition because parent element `EvidenceVariable.characteristic.definitionByTypeAndValue` requires a cross-version extension.
-Element `EvidenceVariable.characteristic.definitionByTypeAndValue.method` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+    <t>Element `EvidenceVariable.characteristic.definitionByTypeAndValue.method` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.
+Note available implied context: `EvidenceVariable.characteristic.definitionByCombination.characteristic` because `EvidenceVariable.characteristic.definitionByCombination.characteristic` is defined via a content reference to `EvidenceVariable.characteristic`.</t>
   </si>
   <si>
     <t>Extension.extension:definitionByTypeAndValue.extension:method.id</t>
@@ -792,12 +795,12 @@
     <t>Extension.extension:definitionByTypeAndValue.extension:method.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.characteristic.definitionByTypeAndValue.method</t>
-  </si>
-  <si>
     <t>Extension.extension:definitionByTypeAndValue.extension:method.value[x]</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-definition-method-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
     <t>Extension.extension:definitionByTypeAndValue.extension:device</t>
   </si>
   <si>
@@ -810,9 +813,9 @@
     <t>Device used for determining characteristic.</t>
   </si>
   <si>
-    <t>Element `EvidenceVariable.characteristic.definitionByTypeAndValue.device` is part of an existing definition because parent element `EvidenceVariable.characteristic.definitionByTypeAndValue` requires a cross-version extension.
-Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `EvidenceVariable.characteristic.definitionByTypeAndValue.device` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `EvidenceVariable.characteristic.definitionByTypeAndValue.device` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `EvidenceVariable.characteristic.definitionByTypeAndValue.device` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `EvidenceVariable.characteristic.definitionByTypeAndValue.device` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.
+Note available implied context: `EvidenceVariable.characteristic.definitionByCombination.characteristic` because `EvidenceVariable.characteristic.definitionByCombination.characteristic` is defined via a content reference to `EvidenceVariable.characteristic`.</t>
   </si>
   <si>
     <t>Extension.extension:definitionByTypeAndValue.extension:device.id</t>
@@ -824,13 +827,10 @@
     <t>Extension.extension:definitionByTypeAndValue.extension:device.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.characteristic.definitionByTypeAndValue.device</t>
-  </si>
-  <si>
     <t>Extension.extension:definitionByTypeAndValue.extension:device.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|Device|http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceMetric|DeviceMetric)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|0.0.1-snapshot-3|Device|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceMetric|0.0.1-snapshot-3|DeviceMetric|4.0.1)
 </t>
   </si>
   <si>
@@ -846,8 +846,8 @@
     <t>Defines the characteristic when paired with characteristic.type.</t>
   </si>
   <si>
-    <t>Element `EvidenceVariable.characteristic.definitionByTypeAndValue.value[x]` is part of an existing definition because parent element `EvidenceVariable.characteristic.definitionByTypeAndValue` requires a cross-version extension.
-Element `EvidenceVariable.characteristic.definitionByTypeAndValue.value[x]` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+    <t>Element `EvidenceVariable.characteristic.definitionByTypeAndValue.value[x]` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.
+Note available implied context: `EvidenceVariable.characteristic.definitionByCombination.characteristic` because `EvidenceVariable.characteristic.definitionByCombination.characteristic` is defined via a content reference to `EvidenceVariable.characteristic`.</t>
   </si>
   <si>
     <t>Extension.extension:definitionByTypeAndValue.extension:value.id</t>
@@ -857,9 +857,6 @@
   </si>
   <si>
     <t>Extension.extension:definitionByTypeAndValue.extension:value.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.characteristic.definitionByTypeAndValue.value</t>
   </si>
   <si>
     <t>Extension.extension:definitionByTypeAndValue.extension:value.value[x]</t>
@@ -881,8 +878,8 @@
     <t>Defines the reference point for comparison when valueQuantity or valueRange is not compared to zero.</t>
   </si>
   <si>
-    <t>Element `EvidenceVariable.characteristic.definitionByTypeAndValue.offset` is part of an existing definition because parent element `EvidenceVariable.characteristic.definitionByTypeAndValue` requires a cross-version extension.
-Element `EvidenceVariable.characteristic.definitionByTypeAndValue.offset` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+    <t>Element `EvidenceVariable.characteristic.definitionByTypeAndValue.offset` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.
+Note available implied context: `EvidenceVariable.characteristic.definitionByCombination.characteristic` because `EvidenceVariable.characteristic.definitionByCombination.characteristic` is defined via a content reference to `EvidenceVariable.characteristic`.</t>
   </si>
   <si>
     <t>Extension.extension:definitionByTypeAndValue.extension:offset.id</t>
@@ -894,10 +891,10 @@
     <t>Extension.extension:definitionByTypeAndValue.extension:offset.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.characteristic.definitionByTypeAndValue.offset</t>
-  </si>
-  <si>
     <t>Extension.extension:definitionByTypeAndValue.extension:offset.value[x]</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-characteristic-offset-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Extension.extension:definitionByTypeAndValue.url</t>
@@ -931,8 +928,8 @@
     <t>Defines the characteristic as a combination of two or more characteristics.</t>
   </si>
   <si>
-    <t>Element `EvidenceVariable.characteristic.definitionByCombination` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a cross-version extension.
-Element `EvidenceVariable.characteristic.definitionByCombination` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+    <t>Element `EvidenceVariable.characteristic.definitionByCombination` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.
+Note available implied context: `EvidenceVariable.characteristic.definitionByCombination.characteristic` because `EvidenceVariable.characteristic.definitionByCombination.characteristic` is defined via a content reference to `EvidenceVariable.characteristic`.</t>
   </si>
   <si>
     <t>Extension.extension:definitionByCombination.id</t>
@@ -953,8 +950,8 @@
     <t>Used to specify if two or more characteristics are combined with OR or AND.</t>
   </si>
   <si>
-    <t>If code is "at-least" or "at-most" then threshold SHALL be used. If code is neither "at-least" nor "at-most" then threshold SHALL NOT be used. Element `EvidenceVariable.characteristic.definitionByCombination.code` is part of an existing definition because parent element `EvidenceVariable.characteristic.definitionByCombination` requires a cross-version extension.
-Element `EvidenceVariable.characteristic.definitionByCombination.code` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+    <t>If code is "at-least" or "at-most" then threshold SHALL be used. If code is neither "at-least" nor "at-most" then threshold SHALL NOT be used. Element `EvidenceVariable.characteristic.definitionByCombination.code` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.
+Note available implied context: `EvidenceVariable.characteristic.definitionByCombination.characteristic` because `EvidenceVariable.characteristic.definitionByCombination.characteristic` is defined via a content reference to `EvidenceVariable.characteristic`.</t>
   </si>
   <si>
     <t>Extension.extension:definitionByCombination.extension:code.id</t>
@@ -964,9 +961,6 @@
   </si>
   <si>
     <t>Extension.extension:definitionByCombination.extension:code.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.characteristic.definitionByCombination.code</t>
   </si>
   <si>
     <t>Extension.extension:definitionByCombination.extension:code.value[x]</t>
@@ -979,7 +973,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-characteristic-combination-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-characteristic-combination-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Extension.extension:definitionByCombination.extension:threshold</t>
@@ -994,8 +988,8 @@
     <t>Provides the value of "n" when "at-least" or "at-most" codes are used.</t>
   </si>
   <si>
-    <t>Element `EvidenceVariable.characteristic.definitionByCombination.threshold` is part of an existing definition because parent element `EvidenceVariable.characteristic.definitionByCombination` requires a cross-version extension.
-Element `EvidenceVariable.characteristic.definitionByCombination.threshold` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+    <t>Element `EvidenceVariable.characteristic.definitionByCombination.threshold` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.
+Note available implied context: `EvidenceVariable.characteristic.definitionByCombination.characteristic` because `EvidenceVariable.characteristic.definitionByCombination.characteristic` is defined via a content reference to `EvidenceVariable.characteristic`.</t>
   </si>
   <si>
     <t>Extension.extension:definitionByCombination.extension:threshold.id</t>
@@ -1005,9 +999,6 @@
   </si>
   <si>
     <t>Extension.extension:definitionByCombination.extension:threshold.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.characteristic.definitionByCombination.threshold</t>
   </si>
   <si>
     <t>Extension.extension:definitionByCombination.extension:threshold.value[x]</t>
@@ -1029,8 +1020,8 @@
     <t>A defining factor of the characteristic.</t>
   </si>
   <si>
-    <t>Element `EvidenceVariable.characteristic.definitionByCombination.characteristic` is part of an existing definition because parent element `EvidenceVariable.characteristic.definitionByCombination` requires a cross-version extension.
-Element `EvidenceVariable.characteristic.definitionByCombination.characteristic` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+    <t>Element `EvidenceVariable.characteristic.definitionByCombination.characteristic` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.
+Note available implied context: `EvidenceVariable.characteristic.definitionByCombination.characteristic` because `EvidenceVariable.characteristic.definitionByCombination.characteristic` is defined via a content reference to `EvidenceVariable.characteristic`.</t>
   </si>
   <si>
     <t>Extension.extension:definitionByCombination.extension:characteristic.id</t>
@@ -1066,8 +1057,8 @@
     <t>Number of occurrences meeting the characteristic.</t>
   </si>
   <si>
-    <t>Element `EvidenceVariable.characteristic.instances[x]` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a cross-version extension.
-Element `EvidenceVariable.characteristic.instances[x]` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+    <t>Element `EvidenceVariable.characteristic.instances[x]` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.
+Note available implied context: `EvidenceVariable.characteristic.definitionByCombination.characteristic` because `EvidenceVariable.characteristic.definitionByCombination.characteristic` is defined via a content reference to `EvidenceVariable.characteristic`.</t>
   </si>
   <si>
     <t>Extension.extension:instances.id</t>
@@ -1101,8 +1092,8 @@
     <t>Length of time in which the characteristic is met.</t>
   </si>
   <si>
-    <t>Element `EvidenceVariable.characteristic.duration[x]` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a cross-version extension.
-Element `EvidenceVariable.characteristic.duration[x]` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+    <t>Element `EvidenceVariable.characteristic.duration[x]` has a context of EvidenceVariable.characteristic based on following the parent source element upwards and mapping to `EvidenceVariable`.
+Note available implied context: `EvidenceVariable.characteristic.definitionByCombination.characteristic` because `EvidenceVariable.characteristic.definitionByCombination.characteristic` is defined via a content reference to `EvidenceVariable.characteristic`.</t>
   </si>
   <si>
     <t>Extension.extension:duration.id</t>
@@ -1132,8 +1123,8 @@
     <t>Timing in which the characteristic is determined.</t>
   </si>
   <si>
-    <t>Element `EvidenceVariable.characteristic.timeFromEvent` is part of an existing definition because parent element `EvidenceVariable.characteristic` requires a cross-version extension.
-Element `EvidenceVariable.characteristic.timeFromEvent` has is mapped to FHIR R4 element `EvidenceVariable.characteristic.timeFromStart`, but has no comparisons.</t>
+    <t>Element `EvidenceVariable.characteristic.timeFromEvent` is mapped to FHIR R4 element `EvidenceVariable.characteristic.timeFromStart` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.
+Note available implied context: `EvidenceVariable.characteristic.definitionByCombination.characteristic.timeFromStart` because `EvidenceVariable.characteristic.definitionByCombination.characteristic` is defined via a content reference to `EvidenceVariable.characteristic`.</t>
   </si>
   <si>
     <t>Extension.extension:timeFromEvent.id</t>
@@ -1151,8 +1142,8 @@
     <t>Human readable description.</t>
   </si>
   <si>
-    <t>Element `EvidenceVariable.characteristic.timeFromEvent.description` is part of an existing definition because parent element `EvidenceVariable.characteristic.timeFromEvent` requires a cross-version extension.
-Element `EvidenceVariable.characteristic.timeFromEvent.description` has a context of EvidenceVariable.characteristic.timeFromStart based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+    <t>Element `EvidenceVariable.characteristic.timeFromEvent.description` has a context of EvidenceVariable.characteristic.timeFromStart based on following the parent source element upwards and mapping to `EvidenceVariable`.
+Note available implied context: `EvidenceVariable.characteristic.definitionByCombination.characteristic.timeFromStart` because `EvidenceVariable.characteristic.definitionByCombination.characteristic` is defined via a content reference to `EvidenceVariable.characteristic`.</t>
   </si>
   <si>
     <t>Extension.extension:timeFromEvent.extension:description.id</t>
@@ -1164,9 +1155,6 @@
     <t>Extension.extension:timeFromEvent.extension:description.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.characteristic.timeFromEvent.description</t>
-  </si>
-  <si>
     <t>Extension.extension:timeFromEvent.extension:description.value[x]</t>
   </si>
   <si>
@@ -1176,8 +1164,8 @@
     <t>A human-readable string to clarify or explain concepts about the timeFromEvent.</t>
   </si>
   <si>
-    <t>Element `EvidenceVariable.characteristic.timeFromEvent.note` is part of an existing definition because parent element `EvidenceVariable.characteristic.timeFromEvent` requires a cross-version extension.
-Element `EvidenceVariable.characteristic.timeFromEvent.note` has a context of EvidenceVariable.characteristic.timeFromStart based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+    <t>Element `EvidenceVariable.characteristic.timeFromEvent.note` has a context of EvidenceVariable.characteristic.timeFromStart based on following the parent source element upwards and mapping to `EvidenceVariable`.
+Note available implied context: `EvidenceVariable.characteristic.definitionByCombination.characteristic.timeFromStart` because `EvidenceVariable.characteristic.definitionByCombination.characteristic` is defined via a content reference to `EvidenceVariable.characteristic`.</t>
   </si>
   <si>
     <t>Extension.extension:timeFromEvent.extension:note.id</t>
@@ -1189,9 +1177,6 @@
     <t>Extension.extension:timeFromEvent.extension:note.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.characteristic.timeFromEvent.note</t>
-  </si>
-  <si>
     <t>Extension.extension:timeFromEvent.extension:note.value[x]</t>
   </si>
   <si>
@@ -1207,8 +1192,8 @@
     <t>The event used as a base point (reference point) in time.</t>
   </si>
   <si>
-    <t>Element `EvidenceVariable.characteristic.timeFromEvent.event[x]` is part of an existing definition because parent element `EvidenceVariable.characteristic.timeFromEvent` requires a cross-version extension.
-Element `EvidenceVariable.characteristic.timeFromEvent.event[x]` has a context of EvidenceVariable.characteristic.timeFromStart based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+    <t>Element `EvidenceVariable.characteristic.timeFromEvent.event[x]` has a context of EvidenceVariable.characteristic.timeFromStart based on following the parent source element upwards and mapping to `EvidenceVariable`.
+Note available implied context: `EvidenceVariable.characteristic.definitionByCombination.characteristic.timeFromStart` because `EvidenceVariable.characteristic.definitionByCombination.characteristic` is defined via a content reference to `EvidenceVariable.characteristic`.</t>
   </si>
   <si>
     <t>Extension.extension:timeFromEvent.extension:event.id</t>
@@ -1218,9 +1203,6 @@
   </si>
   <si>
     <t>Extension.extension:timeFromEvent.extension:event.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.characteristic.timeFromEvent.event</t>
   </si>
   <si>
     <t>Extension.extension:timeFromEvent.extension:event.value[x]</t>
@@ -1230,6 +1212,9 @@
 ReferencedateTimeid</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-evidence-variable-event-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
     <t>Extension.extension:timeFromEvent.extension:quantity</t>
   </si>
   <si>
@@ -1242,8 +1227,8 @@
     <t>Used to express the observation at a defined amount of time before or after the event.</t>
   </si>
   <si>
-    <t>Element `EvidenceVariable.characteristic.timeFromEvent.quantity` is part of an existing definition because parent element `EvidenceVariable.characteristic.timeFromEvent` requires a cross-version extension.
-Element `EvidenceVariable.characteristic.timeFromEvent.quantity` has a context of EvidenceVariable.characteristic.timeFromStart based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+    <t>Element `EvidenceVariable.characteristic.timeFromEvent.quantity` has a context of EvidenceVariable.characteristic.timeFromStart based on following the parent source element upwards and mapping to `EvidenceVariable`.
+Note available implied context: `EvidenceVariable.characteristic.definitionByCombination.characteristic.timeFromStart` because `EvidenceVariable.characteristic.definitionByCombination.characteristic` is defined via a content reference to `EvidenceVariable.characteristic`.</t>
   </si>
   <si>
     <t>Extension.extension:timeFromEvent.extension:quantity.id</t>
@@ -1253,9 +1238,6 @@
   </si>
   <si>
     <t>Extension.extension:timeFromEvent.extension:quantity.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.characteristic.timeFromEvent.quantity</t>
   </si>
   <si>
     <t>Extension.extension:timeFromEvent.extension:quantity.value[x]</t>
@@ -1277,8 +1259,8 @@
     <t>Used to express the observation within a period before and/or after the event.</t>
   </si>
   <si>
-    <t>Element `EvidenceVariable.characteristic.timeFromEvent.range` is part of an existing definition because parent element `EvidenceVariable.characteristic.timeFromEvent` requires a cross-version extension.
-Element `EvidenceVariable.characteristic.timeFromEvent.range` has a context of EvidenceVariable.characteristic.timeFromStart based on following the parent source element upwards and mapping to `EvidenceVariable`.</t>
+    <t>Element `EvidenceVariable.characteristic.timeFromEvent.range` has a context of EvidenceVariable.characteristic.timeFromStart based on following the parent source element upwards and mapping to `EvidenceVariable`.
+Note available implied context: `EvidenceVariable.characteristic.definitionByCombination.characteristic.timeFromStart` because `EvidenceVariable.characteristic.definitionByCombination.characteristic` is defined via a content reference to `EvidenceVariable.characteristic`.</t>
   </si>
   <si>
     <t>Extension.extension:timeFromEvent.extension:range.id</t>
@@ -1288,9 +1270,6 @@
   </si>
   <si>
     <t>Extension.extension:timeFromEvent.extension:range.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EvidenceVariable.characteristic.timeFromEvent.range</t>
   </si>
   <si>
     <t>Extension.extension:timeFromEvent.extension:range.value[x]</t>
@@ -1657,7 +1636,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="60.828125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="75.23828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -7478,7 +7457,7 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>77</v>
@@ -7540,10 +7519,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="B57" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7599,13 +7578,11 @@
         <v>77</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="Y57" s="2"/>
       <c r="Z57" t="s" s="2">
-        <v>77</v>
+        <v>237</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>77</v>
@@ -7643,13 +7620,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>77</v>
@@ -7674,14 +7651,14 @@
         <v>94</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -7750,7 +7727,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>229</v>
@@ -7853,7 +7830,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>231</v>
@@ -7958,7 +7935,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>233</v>
@@ -8001,7 +7978,7 @@
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="S61" t="s" s="2">
         <v>77</v>
@@ -8066,7 +8043,7 @@
         <v>246</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8092,10 +8069,10 @@
         <v>192</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8122,13 +8099,11 @@
         <v>77</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="Y62" s="2"/>
       <c r="Z62" t="s" s="2">
-        <v>77</v>
+        <v>247</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>77</v>
@@ -8166,13 +8141,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>77</v>
@@ -8197,14 +8172,14 @@
         <v>94</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>77</v>
@@ -8273,7 +8248,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>229</v>
@@ -8376,7 +8351,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>231</v>
@@ -8481,7 +8456,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>233</v>
@@ -8524,7 +8499,7 @@
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>77</v>
@@ -8589,7 +8564,7 @@
         <v>256</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8615,10 +8590,10 @@
         <v>257</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9047,7 +9022,7 @@
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" t="s" s="2">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="S71" t="s" s="2">
         <v>77</v>
@@ -9109,10 +9084,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9135,7 +9110,7 @@
         <v>77</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L72" t="s" s="2">
         <v>260</v>
@@ -9212,13 +9187,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D73" t="s" s="2">
         <v>77</v>
@@ -9243,14 +9218,14 @@
         <v>94</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>77</v>
@@ -9319,7 +9294,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>229</v>
@@ -9422,7 +9397,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>231</v>
@@ -9527,7 +9502,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>233</v>
@@ -9570,7 +9545,7 @@
       </c>
       <c r="Q76" s="2"/>
       <c r="R76" t="s" s="2">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="S76" t="s" s="2">
         <v>77</v>
@@ -9632,10 +9607,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -9661,10 +9636,10 @@
         <v>192</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -9691,13 +9666,11 @@
         <v>77</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="Y77" s="2"/>
       <c r="Z77" t="s" s="2">
-        <v>77</v>
+        <v>277</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>77</v>
@@ -9735,7 +9708,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>114</v>
@@ -9778,7 +9751,7 @@
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>77</v>
@@ -9840,7 +9813,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>123</v>
@@ -9866,13 +9839,13 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -9943,13 +9916,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>77</v>
@@ -9974,14 +9947,14 @@
         <v>94</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>77</v>
@@ -10050,7 +10023,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>106</v>
@@ -10153,7 +10126,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>108</v>
@@ -10256,13 +10229,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>77</v>
@@ -10287,14 +10260,14 @@
         <v>94</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>77</v>
@@ -10363,7 +10336,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>229</v>
@@ -10466,7 +10439,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>231</v>
@@ -10571,7 +10544,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>233</v>
@@ -10614,7 +10587,7 @@
       </c>
       <c r="Q86" s="2"/>
       <c r="R86" t="s" s="2">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>77</v>
@@ -10676,10 +10649,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -10702,13 +10675,13 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -10735,11 +10708,11 @@
         <v>77</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="Y87" s="2"/>
       <c r="Z87" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>77</v>
@@ -10777,13 +10750,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D88" t="s" s="2">
         <v>77</v>
@@ -10808,14 +10781,14 @@
         <v>94</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>77</v>
@@ -10884,7 +10857,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>229</v>
@@ -10987,7 +10960,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>231</v>
@@ -11092,7 +11065,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>233</v>
@@ -11135,7 +11108,7 @@
       </c>
       <c r="Q91" s="2"/>
       <c r="R91" t="s" s="2">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="S91" t="s" s="2">
         <v>77</v>
@@ -11197,10 +11170,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11223,13 +11196,13 @@
         <v>77</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -11300,13 +11273,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D93" t="s" s="2">
         <v>77</v>
@@ -11331,14 +11304,14 @@
         <v>94</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>77</v>
@@ -11407,7 +11380,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>229</v>
@@ -11510,7 +11483,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>231</v>
@@ -11615,7 +11588,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>233</v>
@@ -11720,10 +11693,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -11746,13 +11719,13 @@
         <v>77</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L97" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="L97" t="s" s="2">
+      <c r="M97" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -11823,7 +11796,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>114</v>
@@ -11866,7 +11839,7 @@
       </c>
       <c r="Q98" s="2"/>
       <c r="R98" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="S98" t="s" s="2">
         <v>77</v>
@@ -11928,7 +11901,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>123</v>
@@ -11954,13 +11927,13 @@
         <v>77</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L99" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="L99" t="s" s="2">
+      <c r="M99" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -12031,13 +12004,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D100" t="s" s="2">
         <v>77</v>
@@ -12062,14 +12035,14 @@
         <v>94</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>77</v>
@@ -12138,7 +12111,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>106</v>
@@ -12241,7 +12214,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>108</v>
@@ -12346,7 +12319,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>114</v>
@@ -12389,7 +12362,7 @@
       </c>
       <c r="Q103" s="2"/>
       <c r="R103" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="S103" t="s" s="2">
         <v>77</v>
@@ -12451,7 +12424,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>123</v>
@@ -12477,13 +12450,13 @@
         <v>77</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -12554,13 +12527,13 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D105" t="s" s="2">
         <v>77</v>
@@ -12585,14 +12558,14 @@
         <v>94</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>77</v>
@@ -12661,7 +12634,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>106</v>
@@ -12764,7 +12737,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>108</v>
@@ -12869,7 +12842,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>114</v>
@@ -12912,7 +12885,7 @@
       </c>
       <c r="Q108" s="2"/>
       <c r="R108" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="S108" t="s" s="2">
         <v>77</v>
@@ -12974,7 +12947,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>123</v>
@@ -13000,13 +12973,13 @@
         <v>77</v>
       </c>
       <c r="K109" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="L109" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="L109" t="s" s="2">
-        <v>341</v>
-      </c>
       <c r="M109" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -13077,13 +13050,13 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D110" t="s" s="2">
         <v>77</v>
@@ -13108,14 +13081,14 @@
         <v>94</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>77</v>
@@ -13184,7 +13157,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>106</v>
@@ -13287,7 +13260,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>108</v>
@@ -13390,7 +13363,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>108</v>
@@ -13421,14 +13394,14 @@
         <v>94</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>77</v>
@@ -13497,7 +13470,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>229</v>
@@ -13600,7 +13573,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>231</v>
@@ -13705,7 +13678,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>233</v>
@@ -13748,7 +13721,7 @@
       </c>
       <c r="Q116" s="2"/>
       <c r="R116" t="s" s="2">
-        <v>363</v>
+        <v>128</v>
       </c>
       <c r="S116" t="s" s="2">
         <v>77</v>
@@ -13810,10 +13783,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -13839,10 +13812,10 @@
         <v>137</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -13913,7 +13886,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>108</v>
@@ -13947,11 +13920,11 @@
         <v>140</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>77</v>
@@ -14020,7 +13993,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>229</v>
@@ -14123,7 +14096,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>231</v>
@@ -14228,7 +14201,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>233</v>
@@ -14271,7 +14244,7 @@
       </c>
       <c r="Q121" s="2"/>
       <c r="R121" t="s" s="2">
-        <v>371</v>
+        <v>139</v>
       </c>
       <c r="S121" t="s" s="2">
         <v>77</v>
@@ -14333,10 +14306,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -14365,7 +14338,7 @@
         <v>140</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -14436,13 +14409,13 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D123" t="s" s="2">
         <v>77</v>
@@ -14467,14 +14440,14 @@
         <v>94</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>77</v>
@@ -14543,7 +14516,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>229</v>
@@ -14646,7 +14619,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>231</v>
@@ -14751,7 +14724,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>233</v>
@@ -14794,7 +14767,7 @@
       </c>
       <c r="Q126" s="2"/>
       <c r="R126" t="s" s="2">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="S126" t="s" s="2">
         <v>77</v>
@@ -14856,10 +14829,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -14882,13 +14855,13 @@
         <v>77</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
@@ -14915,13 +14888,11 @@
         <v>77</v>
       </c>
       <c r="X127" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y127" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="Y127" s="2"/>
       <c r="Z127" t="s" s="2">
-        <v>77</v>
+        <v>378</v>
       </c>
       <c r="AA127" t="s" s="2">
         <v>77</v>
@@ -14959,13 +14930,13 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D128" t="s" s="2">
         <v>77</v>
@@ -14990,14 +14961,14 @@
         <v>94</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>77</v>
@@ -15066,7 +15037,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>229</v>
@@ -15169,7 +15140,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>231</v>
@@ -15274,7 +15245,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>233</v>
@@ -15317,7 +15288,7 @@
       </c>
       <c r="Q131" s="2"/>
       <c r="R131" t="s" s="2">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="S131" t="s" s="2">
         <v>77</v>
@@ -15379,10 +15350,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -15405,13 +15376,13 @@
         <v>77</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" s="2"/>
@@ -15482,13 +15453,13 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="D133" t="s" s="2">
         <v>77</v>
@@ -15513,14 +15484,14 @@
         <v>94</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="P133" t="s" s="2">
         <v>77</v>
@@ -15589,7 +15560,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>229</v>
@@ -15692,7 +15663,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>231</v>
@@ -15797,7 +15768,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>233</v>
@@ -15840,7 +15811,7 @@
       </c>
       <c r="Q136" s="2"/>
       <c r="R136" t="s" s="2">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="S136" t="s" s="2">
         <v>77</v>
@@ -15902,10 +15873,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -15928,13 +15899,13 @@
         <v>77</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
@@ -16005,7 +15976,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>114</v>
@@ -16048,7 +16019,7 @@
       </c>
       <c r="Q138" s="2"/>
       <c r="R138" t="s" s="2">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="S138" t="s" s="2">
         <v>77</v>
@@ -16110,7 +16081,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>123</v>
@@ -16136,13 +16107,13 @@
         <v>77</v>
       </c>
       <c r="K139" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L139" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="L139" t="s" s="2">
+      <c r="M139" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" s="2"/>
@@ -16344,13 +16315,13 @@
         <v>77</v>
       </c>
       <c r="K141" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L141" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="L141" t="s" s="2">
+      <c r="M141" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="M141" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="N141" s="2"/>
       <c r="O141" s="2"/>
